--- a/Data/general/survey data.xlsx
+++ b/Data/general/survey data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SNyimbili\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://righttocare-my.sharepoint.com/personal/shida_nyimbili_righttocare-zambia_org/Documents/Documents/RTCZ/RTCZ/R/RTCZ/Data/general/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F6AA38F-CD08-4542-8C16-570EA76C68F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{9F6AA38F-CD08-4542-8C16-570EA76C68F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CF9DFCE4-D89E-463E-9BDC-EB3B3A8A2F39}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{5504F856-980E-433C-9ECE-9E9D242C3394}"/>
   </bookViews>
@@ -56,7 +56,7 @@
     <t>I could not imagine to abolish Christmas as a national holiday.</t>
   </si>
   <si>
-    <t>Christmas has religious meaning to me</t>
+    <t>Christmas has religious meaning to me.</t>
   </si>
 </sst>
 </file>
@@ -414,7 +414,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
